--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Appoint" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="City" sheetId="4" r:id="rId4"/>
     <sheet name="Car" sheetId="5" r:id="rId5"/>
     <sheet name="Fault" sheetId="6" r:id="rId6"/>
+    <sheet name="Job" sheetId="7" r:id="rId7"/>
+    <sheet name="Department" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="126">
   <si>
     <t>Description</t>
   </si>
@@ -110,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>自增（主键）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -472,11 +470,75 @@
     <t>FaultName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>职位表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaultID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppointID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,6 +677,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -662,7 +727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,9 +760,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,6 +812,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -936,7 +1035,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1000,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
@@ -1021,14 +1120,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7">
         <v>30</v>
@@ -1042,14 +1141,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7">
         <v>20</v>
@@ -1061,14 +1160,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7">
         <v>15</v>
@@ -1080,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
@@ -1101,10 +1200,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
@@ -1120,10 +1219,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
@@ -1141,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1161,10 +1260,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
@@ -1178,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
@@ -1197,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
@@ -1214,10 +1313,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
@@ -1233,10 +1332,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
@@ -1258,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
@@ -1566,7 +1665,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1579,7 +1678,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1587,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1596,7 +1695,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -1660,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
@@ -1682,13 +1781,13 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F5" s="7">
         <v>30</v>
@@ -1703,13 +1802,13 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7">
         <v>20</v>
@@ -1722,13 +1821,13 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -1741,13 +1840,13 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7">
         <v>20</v>
@@ -1760,13 +1859,13 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7">
         <v>20</v>
@@ -1779,13 +1878,13 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7">
         <v>20</v>
@@ -1798,13 +1897,13 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7">
         <v>20</v>
@@ -1817,13 +1916,13 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7">
         <v>100</v>
@@ -1836,13 +1935,13 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7">
         <v>20</v>
@@ -1855,10 +1954,10 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>15</v>
@@ -1874,10 +1973,10 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>14</v>
@@ -1915,7 +2014,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1925,7 +2024,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1933,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1942,7 +2041,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2006,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
@@ -2027,14 +2126,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7">
         <v>20</v>
@@ -2046,14 +2145,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7">
         <v>20</v>
@@ -2065,14 +2164,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7">
         <v>20</v>
@@ -2084,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
@@ -2103,14 +2202,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -2122,14 +2221,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -2144,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -2164,14 +2263,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -2183,6 +2282,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2191,7 +2291,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2201,7 +2301,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2209,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2218,7 +2318,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2282,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
@@ -2303,14 +2403,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7">
         <v>20</v>
@@ -2395,7 +2495,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2405,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2413,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2422,7 +2522,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2486,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
@@ -2507,14 +2607,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7">
         <v>20</v>
@@ -2535,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2546,7 +2646,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2554,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2563,7 +2663,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2627,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
@@ -2648,14 +2748,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7">
         <v>20</v>
@@ -2724,6 +2824,307 @@
       <c r="E12" s="9"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
